--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X15 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X15 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,30 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>adjusted back electrodes</t>
-  </si>
-  <si>
-    <t>start exp at 10 minutes</t>
-  </si>
-  <si>
-    <t>30 w</t>
-  </si>
-  <si>
-    <t>75 w</t>
-  </si>
-  <si>
-    <t>90 w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -159,13 +135,31 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>adjusted back electrodes</t>
+  </si>
+  <si>
     <t>submax</t>
   </si>
   <si>
     <t>submax 2</t>
   </si>
   <si>
+    <t>start exp at 10 minutes</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>30 w</t>
+  </si>
+  <si>
+    <t>75 w</t>
+  </si>
+  <si>
+    <t>90 w</t>
   </si>
   <si>
     <t>submax 1</t>
@@ -173,29 +167,378 @@
   <si>
     <t>105w, submax 2</t>
   </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,20 +546,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -224,6 +856,1392 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00914351851851852</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.009375</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00949074074074074</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00960648148148148</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.0100694444444444</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.0103009259259259</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.0105324074074074</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.0106481481481481</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.0107638888888889</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.0108796296296296</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.0109953703703704</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.0111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.0114583333333333</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.0115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.0116898148148148</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.0118055555555556</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.0119212962962963</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.012037037037037</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.0121527777777778</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.0122685185185185</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.0123842592592593</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.0125</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0126157407407407</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.0127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.0128472222222222</c:v>
+                </c:pt>
+                <c:pt idx="78" c:formatCode="h:mm:ss">
+                  <c:v>0.012962962962963</c:v>
+                </c:pt>
+                <c:pt idx="79" c:formatCode="h:mm:ss">
+                  <c:v>0.0130787037037037</c:v>
+                </c:pt>
+                <c:pt idx="80" c:formatCode="h:mm:ss">
+                  <c:v>0.0131944444444444</c:v>
+                </c:pt>
+                <c:pt idx="81" c:formatCode="h:mm:ss">
+                  <c:v>0.0133101851851852</c:v>
+                </c:pt>
+                <c:pt idx="82" c:formatCode="h:mm:ss">
+                  <c:v>0.0134259259259259</c:v>
+                </c:pt>
+                <c:pt idx="83" c:formatCode="h:mm:ss">
+                  <c:v>0.0135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="84" c:formatCode="h:mm:ss">
+                  <c:v>0.0136574074074074</c:v>
+                </c:pt>
+                <c:pt idx="85" c:formatCode="h:mm:ss">
+                  <c:v>0.0137731481481481</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="h:mm:ss">
+                  <c:v>0.0138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="h:mm:ss">
+                  <c:v>0.0140046296296296</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="h:mm:ss">
+                  <c:v>0.0141203703703704</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="h:mm:ss">
+                  <c:v>0.0142361111111111</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="h:mm:ss">
+                  <c:v>0.0143518518518519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.93</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.49</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="480791308"/>
+        <c:axId val="951364578"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="480791308"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951364578"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="951364578"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480791308"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>178435</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10687050" y="17186275"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,21 +2525,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M77" workbookViewId="0">
-      <selection activeCell="W94" sqref="W94"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -543,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -602,57 +2620,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B6" s="1">
-        <v>3.8356481481481484E-2</v>
+        <v>0.0383564814814815</v>
       </c>
       <c r="C6">
         <v>110</v>
@@ -700,12 +2718,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B7" s="1">
-        <v>3.8703703703703705E-2</v>
+        <v>0.0387037037037037</v>
       </c>
       <c r="C7">
         <v>110</v>
@@ -753,12 +2771,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B8" s="1">
-        <v>3.8819444444444441E-2</v>
+        <v>0.0388194444444444</v>
       </c>
       <c r="C8">
         <v>111</v>
@@ -767,7 +2785,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="F8">
         <v>3.1</v>
@@ -806,12 +2824,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B9" s="1">
-        <v>3.8935185185185191E-2</v>
+        <v>0.0389351851851852</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -859,12 +2877,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B10" s="1">
-        <v>3.9166666666666662E-2</v>
+        <v>0.0391666666666667</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -912,15 +2930,15 @@
         <v>33</v>
       </c>
       <c r="S10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B11" s="1">
-        <v>3.9282407407407412E-2</v>
+        <v>0.0392824074074074</v>
       </c>
       <c r="C11">
         <v>107</v>
@@ -968,12 +2986,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B12" s="1">
-        <v>3.9398148148148147E-2</v>
+        <v>0.0393981481481481</v>
       </c>
       <c r="C12">
         <v>108</v>
@@ -1021,12 +3039,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B13" s="1">
-        <v>3.951388888888889E-2</v>
+        <v>0.0395138888888889</v>
       </c>
       <c r="C13">
         <v>113</v>
@@ -1074,12 +3092,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B14" s="1">
-        <v>3.9629629629629633E-2</v>
+        <v>0.0396296296296296</v>
       </c>
       <c r="C14">
         <v>113</v>
@@ -1127,12 +3145,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B15" s="1">
-        <v>3.9745370370370368E-2</v>
+        <v>0.0397453703703704</v>
       </c>
       <c r="C15">
         <v>110</v>
@@ -1180,12 +3198,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B16" s="1">
-        <v>3.9861111111111111E-2</v>
+        <v>0.0398611111111111</v>
       </c>
       <c r="C16">
         <v>111</v>
@@ -1233,12 +3251,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B17" s="1">
-        <v>3.9976851851851854E-2</v>
+        <v>0.0399768518518519</v>
       </c>
       <c r="C17">
         <v>109</v>
@@ -1247,7 +3265,7 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="F17">
         <v>2.97</v>
@@ -1286,12 +3304,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B18" s="1">
-        <v>4.0092592592592589E-2</v>
+        <v>0.0400925925925926</v>
       </c>
       <c r="C18">
         <v>123</v>
@@ -1339,12 +3357,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B19" s="1">
-        <v>4.0208333333333332E-2</v>
+        <v>0.0402083333333333</v>
       </c>
       <c r="C19">
         <v>126</v>
@@ -1392,12 +3410,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B20" s="1">
-        <v>4.0324074074074075E-2</v>
+        <v>0.0403240740740741</v>
       </c>
       <c r="C20">
         <v>119</v>
@@ -1445,12 +3463,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B21" s="1">
-        <v>4.0439814814814817E-2</v>
+        <v>0.0404398148148148</v>
       </c>
       <c r="C21">
         <v>105</v>
@@ -1498,12 +3516,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B22" s="1">
-        <v>4.0671296296296296E-2</v>
+        <v>0.0406712962962963</v>
       </c>
       <c r="C22">
         <v>91</v>
@@ -1542,7 +3560,7 @@
         <v>2127</v>
       </c>
       <c r="O22">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="P22">
         <v>217</v>
@@ -1551,12 +3569,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B23" s="1">
-        <v>4.0787037037037038E-2</v>
+        <v>0.040787037037037</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -1604,12 +3622,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B24" s="1">
-        <v>4.0902777777777781E-2</v>
+        <v>0.0409027777777778</v>
       </c>
       <c r="C24">
         <v>96</v>
@@ -1657,12 +3675,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B25" s="1">
-        <v>4.1018518518518517E-2</v>
+        <v>0.0410185185185185</v>
       </c>
       <c r="C25">
         <v>97</v>
@@ -1710,12 +3728,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B26" s="1">
-        <v>4.1134259259259259E-2</v>
+        <v>0.0411342592592593</v>
       </c>
       <c r="C26">
         <v>95</v>
@@ -1724,7 +3742,7 @@
         <v>49</v>
       </c>
       <c r="E26">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="F26">
         <v>3.52</v>
@@ -1754,7 +3772,7 @@
         <v>2078</v>
       </c>
       <c r="O26">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="P26">
         <v>210</v>
@@ -1763,12 +3781,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B27" s="1">
-        <v>4.1250000000000002E-2</v>
+        <v>0.04125</v>
       </c>
       <c r="C27">
         <v>96</v>
@@ -1816,12 +3834,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B28" s="1">
-        <v>4.1365740740740745E-2</v>
+        <v>0.0413657407407407</v>
       </c>
       <c r="C28">
         <v>91</v>
@@ -1860,7 +3878,7 @@
         <v>2151</v>
       </c>
       <c r="O28">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="P28">
         <v>216</v>
@@ -1869,12 +3887,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B29" s="1">
-        <v>4.148148148148148E-2</v>
+        <v>0.0414814814814815</v>
       </c>
       <c r="C29">
         <v>96</v>
@@ -1913,7 +3931,7 @@
         <v>2087</v>
       </c>
       <c r="O29">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="P29">
         <v>210</v>
@@ -1922,12 +3940,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B30" s="1">
-        <v>4.1597222222222223E-2</v>
+        <v>0.0415972222222222</v>
       </c>
       <c r="C30">
         <v>96</v>
@@ -1975,12 +3993,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B31" s="1">
-        <v>4.2638888888888893E-2</v>
+        <v>0.0426388888888889</v>
       </c>
       <c r="C31">
         <v>96</v>
@@ -1989,7 +4007,7 @@
         <v>48</v>
       </c>
       <c r="E31">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="F31">
         <v>3.46</v>
@@ -2019,7 +4037,7 @@
         <v>2104</v>
       </c>
       <c r="O31">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="P31">
         <v>207</v>
@@ -2028,12 +4046,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B32" s="1">
-        <v>4.2754629629629635E-2</v>
+        <v>0.0427546296296296</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -2072,7 +4090,7 @@
         <v>2111</v>
       </c>
       <c r="O32">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="P32">
         <v>210</v>
@@ -2081,12 +4099,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B33" s="1">
-        <v>4.2986111111111114E-2</v>
+        <v>0.0429861111111111</v>
       </c>
       <c r="C33">
         <v>196</v>
@@ -2095,7 +4113,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2.4900000000000002</v>
+        <v>2.49</v>
       </c>
       <c r="F33">
         <v>1.83</v>
@@ -2134,12 +4152,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B34" s="1">
-        <v>4.3101851851851856E-2</v>
+        <v>0.0431018518518519</v>
       </c>
       <c r="C34">
         <v>97</v>
@@ -2187,12 +4205,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B35" s="1">
-        <v>4.3333333333333335E-2</v>
+        <v>0.0433333333333333</v>
       </c>
       <c r="C35">
         <v>89</v>
@@ -2240,12 +4258,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B36" s="1">
-        <v>4.3449074074074077E-2</v>
+        <v>0.0434490740740741</v>
       </c>
       <c r="C36">
         <v>94</v>
@@ -2293,12 +4311,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B37" s="1">
-        <v>4.3564814814814813E-2</v>
+        <v>0.0435648148148148</v>
       </c>
       <c r="C37">
         <v>92</v>
@@ -2346,15 +4364,15 @@
         <v>33</v>
       </c>
       <c r="S37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B38" s="1">
-        <v>4.3680555555555556E-2</v>
+        <v>0.0436805555555556</v>
       </c>
       <c r="C38">
         <v>91</v>
@@ -2402,15 +4420,15 @@
         <v>33</v>
       </c>
       <c r="S38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B39" s="1">
-        <v>4.3796296296296298E-2</v>
+        <v>0.0437962962962963</v>
       </c>
       <c r="C39">
         <v>92</v>
@@ -2458,12 +4476,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B40" s="1">
-        <v>4.3912037037037034E-2</v>
+        <v>0.043912037037037</v>
       </c>
       <c r="C40">
         <v>103</v>
@@ -2502,7 +4520,7 @@
         <v>1869</v>
       </c>
       <c r="O40">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="P40">
         <v>233</v>
@@ -2511,12 +4529,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B41" s="1">
-        <v>4.4259259259259255E-2</v>
+        <v>0.0442592592592593</v>
       </c>
       <c r="C41">
         <v>92</v>
@@ -2564,15 +4582,15 @@
         <v>32</v>
       </c>
       <c r="S41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B42" s="1">
-        <v>4.4953703703703697E-2</v>
+        <v>0.0449537037037037</v>
       </c>
       <c r="C42">
         <v>110</v>
@@ -2584,7 +4602,7 @@
         <v>5.55</v>
       </c>
       <c r="F42">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G42">
         <v>56</v>
@@ -2620,15 +4638,15 @@
         <v>33</v>
       </c>
       <c r="S42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B43" s="1">
-        <v>4.5185185185185189E-2</v>
+        <v>0.0451851851851852</v>
       </c>
       <c r="C43">
         <v>86</v>
@@ -2676,12 +4694,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B44" s="1">
-        <v>4.5300925925925932E-2</v>
+        <v>0.0453009259259259</v>
       </c>
       <c r="C44">
         <v>87</v>
@@ -2729,12 +4747,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B45" s="1">
-        <v>4.5416666666666668E-2</v>
+        <v>0.0454166666666667</v>
       </c>
       <c r="C45">
         <v>87</v>
@@ -2773,7 +4791,7 @@
         <v>2177</v>
       </c>
       <c r="O45">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="P45">
         <v>235</v>
@@ -2782,12 +4800,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B46" s="1">
-        <v>4.553240740740741E-2</v>
+        <v>0.0455324074074074</v>
       </c>
       <c r="C46">
         <v>84</v>
@@ -2796,7 +4814,7 @@
         <v>54</v>
       </c>
       <c r="E46">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="F46">
         <v>3.4</v>
@@ -2835,12 +4853,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B47" s="1">
-        <v>4.5648148148148153E-2</v>
+        <v>0.0456481481481482</v>
       </c>
       <c r="C47">
         <v>88</v>
@@ -2888,12 +4906,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B48" s="1">
-        <v>4.5763888888888889E-2</v>
+        <v>0.0457638888888889</v>
       </c>
       <c r="C48">
         <v>91</v>
@@ -2932,7 +4950,7 @@
         <v>2100</v>
       </c>
       <c r="O48">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="P48">
         <v>232</v>
@@ -2941,12 +4959,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B49" s="1">
-        <v>4.5879629629629631E-2</v>
+        <v>0.0458796296296296</v>
       </c>
       <c r="C49">
         <v>94</v>
@@ -3009,12 +5027,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B50" s="1">
-        <v>4.5995370370370374E-2</v>
+        <v>0.0459953703703704</v>
       </c>
       <c r="C50">
         <v>97</v>
@@ -3023,7 +5041,7 @@
         <v>51</v>
       </c>
       <c r="E50">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="F50">
         <v>3.67</v>
@@ -3053,7 +5071,7 @@
         <v>2012</v>
       </c>
       <c r="O50">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="P50">
         <v>221</v>
@@ -3062,75 +5080,75 @@
         <v>35</v>
       </c>
       <c r="S50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="U50" s="2">
         <f>AVERAGE(C42:C50)</f>
-        <v>91.555555555555557</v>
+        <v>91.5555555555556</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" ref="V50:AI50" si="0">AVERAGE(D42:D50)</f>
-        <v>52.777777777777779</v>
+        <v>52.7777777777778</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="0"/>
-        <v>4.8755555555555548</v>
+        <v>4.87555555555555</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="0"/>
-        <v>55.444444444444443</v>
+        <v>55.4444444444444</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="0"/>
-        <v>429.66666666666669</v>
+        <v>429.666666666667</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="0"/>
-        <v>117.77777777777777</v>
+        <v>117.777777777778</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="0"/>
-        <v>108.33333333333333</v>
+        <v>108.333333333333</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="0"/>
-        <v>93.111111111111114</v>
+        <v>93.1111111111111</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="0"/>
-        <v>94.555555555555557</v>
+        <v>94.5555555555556</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="0"/>
-        <v>1544.5555555555557</v>
+        <v>1544.55555555556</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="0"/>
-        <v>2091.8888888888887</v>
+        <v>2091.88888888889</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="0"/>
-        <v>4.7077777777777783</v>
+        <v>4.70777777777778</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="0"/>
-        <v>231.33333333333334</v>
+        <v>231.333333333333</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B51" s="1">
-        <v>4.611111111111111E-2</v>
+        <v>0.0461111111111111</v>
       </c>
       <c r="C51">
         <v>94</v>
@@ -3193,12 +5211,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B52" s="1">
-        <v>4.6226851851851852E-2</v>
+        <v>0.0462268518518519</v>
       </c>
       <c r="C52">
         <v>91</v>
@@ -3261,12 +5279,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B53" s="1">
-        <v>4.6342592592592595E-2</v>
+        <v>0.0463425925925926</v>
       </c>
       <c r="C53">
         <v>97</v>
@@ -3329,12 +5347,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B54" s="1">
-        <v>4.6458333333333331E-2</v>
+        <v>0.0464583333333333</v>
       </c>
       <c r="C54">
         <v>96</v>
@@ -3397,12 +5415,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B55" s="1">
-        <v>4.6921296296296294E-2</v>
+        <v>0.0469212962962963</v>
       </c>
       <c r="C55">
         <v>101</v>
@@ -3450,7 +5468,7 @@
         <v>35</v>
       </c>
       <c r="S55" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -3468,12 +5486,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>9.1435185185185178E-3</v>
+        <v>0.00914351851851852</v>
       </c>
       <c r="B56" s="1">
-        <v>4.7268518518518515E-2</v>
+        <v>0.0472685185185185</v>
       </c>
       <c r="C56">
         <v>96</v>
@@ -3485,7 +5503,7 @@
         <v>3.32</v>
       </c>
       <c r="F56">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="G56">
         <v>54</v>
@@ -3536,12 +5554,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>9.2592592592592605E-3</v>
+        <v>0.00925925925925926</v>
       </c>
       <c r="B57" s="1">
-        <v>4.7384259259259258E-2</v>
+        <v>0.0473842592592593</v>
       </c>
       <c r="C57">
         <v>127</v>
@@ -3604,12 +5622,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="B58" s="1">
-        <v>4.7500000000000007E-2</v>
+        <v>0.0475</v>
       </c>
       <c r="C58">
         <v>121</v>
@@ -3672,12 +5690,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>9.4907407407407406E-3</v>
+        <v>0.00949074074074074</v>
       </c>
       <c r="B59" s="1">
-        <v>4.7615740740740743E-2</v>
+        <v>0.0476157407407407</v>
       </c>
       <c r="C59">
         <v>124</v>
@@ -3740,12 +5758,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>9.6064814814814815E-3</v>
+        <v>0.00960648148148148</v>
       </c>
       <c r="B60" s="1">
-        <v>4.7731481481481486E-2</v>
+        <v>0.0477314814814815</v>
       </c>
       <c r="C60">
         <v>105</v>
@@ -3808,12 +5826,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>9.7222222222222224E-3</v>
+        <v>0.00972222222222222</v>
       </c>
       <c r="B61" s="1">
-        <v>4.7847222222222228E-2</v>
+        <v>0.0478472222222222</v>
       </c>
       <c r="C61">
         <v>123</v>
@@ -3876,12 +5894,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>1.0069444444444445E-2</v>
+        <v>0.0100694444444444</v>
       </c>
       <c r="B62" s="1">
-        <v>4.8194444444444449E-2</v>
+        <v>0.0481944444444444</v>
       </c>
       <c r="C62">
         <v>121</v>
@@ -3944,12 +5962,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>1.0300925925925927E-2</v>
+        <v>0.0103009259259259</v>
       </c>
       <c r="B63" s="1">
-        <v>4.8425925925925928E-2</v>
+        <v>0.0484259259259259</v>
       </c>
       <c r="C63">
         <v>119</v>
@@ -4012,12 +6030,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>1.0416666666666666E-2</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="B64" s="1">
-        <v>4.854166666666667E-2</v>
+        <v>0.0485416666666667</v>
       </c>
       <c r="C64">
         <v>119</v>
@@ -4080,12 +6098,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>1.0532407407407407E-2</v>
+        <v>0.0105324074074074</v>
       </c>
       <c r="B65" s="1">
-        <v>4.8657407407407406E-2</v>
+        <v>0.0486574074074074</v>
       </c>
       <c r="C65">
         <v>95</v>
@@ -4094,7 +6112,7 @@
         <v>52</v>
       </c>
       <c r="E65">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="F65">
         <v>3.68</v>
@@ -4148,12 +6166,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>1.064814814814815E-2</v>
+        <v>0.0106481481481481</v>
       </c>
       <c r="B66" s="1">
-        <v>4.8773148148148149E-2</v>
+        <v>0.0487731481481481</v>
       </c>
       <c r="C66">
         <v>126</v>
@@ -4216,12 +6234,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>1.0763888888888891E-2</v>
+        <v>0.0107638888888889</v>
       </c>
       <c r="B67" s="1">
-        <v>4.8888888888888891E-2</v>
+        <v>0.0488888888888889</v>
       </c>
       <c r="C67">
         <v>126</v>
@@ -4284,12 +6302,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>1.087962962962963E-2</v>
+        <v>0.0108796296296296</v>
       </c>
       <c r="B68" s="1">
-        <v>4.9004629629629627E-2</v>
+        <v>0.0490046296296296</v>
       </c>
       <c r="C68">
         <v>129</v>
@@ -4352,12 +6370,12 @@
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>1.0995370370370371E-2</v>
+        <v>0.0109953703703704</v>
       </c>
       <c r="B69" s="1">
-        <v>4.912037037037037E-2</v>
+        <v>0.0491203703703704</v>
       </c>
       <c r="C69">
         <v>109</v>
@@ -4420,12 +6438,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>1.1111111111111112E-2</v>
+        <v>0.0111111111111111</v>
       </c>
       <c r="B70" s="1">
-        <v>4.9236111111111112E-2</v>
+        <v>0.0492361111111111</v>
       </c>
       <c r="C70">
         <v>130</v>
@@ -4434,7 +6452,7 @@
         <v>38</v>
       </c>
       <c r="E70">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F70">
         <v>3.74</v>
@@ -4488,12 +6506,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>1.1458333333333334E-2</v>
+        <v>0.0114583333333333</v>
       </c>
       <c r="B71" s="1">
-        <v>4.9583333333333333E-2</v>
+        <v>0.0495833333333333</v>
       </c>
       <c r="C71">
         <v>131</v>
@@ -4556,12 +6574,12 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>1.1574074074074075E-2</v>
+        <v>0.0115740740740741</v>
       </c>
       <c r="B72" s="1">
-        <v>4.9699074074074069E-2</v>
+        <v>0.0496990740740741</v>
       </c>
       <c r="C72">
         <v>134</v>
@@ -4609,7 +6627,7 @@
         <v>64</v>
       </c>
       <c r="S72" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -4627,12 +6645,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>1.1689814814814814E-2</v>
+        <v>0.0116898148148148</v>
       </c>
       <c r="B73" s="1">
-        <v>4.9814814814814812E-2</v>
+        <v>0.0498148148148148</v>
       </c>
       <c r="C73">
         <v>136</v>
@@ -4695,12 +6713,12 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>1.1805555555555555E-2</v>
+        <v>0.0118055555555556</v>
       </c>
       <c r="B74" s="1">
-        <v>4.9930555555555554E-2</v>
+        <v>0.0499305555555556</v>
       </c>
       <c r="C74">
         <v>108</v>
@@ -4763,12 +6781,12 @@
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>1.1921296296296298E-2</v>
+        <v>0.0119212962962963</v>
       </c>
       <c r="B75" s="1">
-        <v>5.004629629629629E-2</v>
+        <v>0.0500462962962963</v>
       </c>
       <c r="C75">
         <v>101</v>
@@ -4831,12 +6849,12 @@
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>1.2037037037037035E-2</v>
+        <v>0.012037037037037</v>
       </c>
       <c r="B76" s="1">
-        <v>5.0162037037037033E-2</v>
+        <v>0.050162037037037</v>
       </c>
       <c r="C76">
         <v>138</v>
@@ -4899,12 +6917,12 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>1.2152777777777778E-2</v>
+        <v>0.0121527777777778</v>
       </c>
       <c r="B77" s="1">
-        <v>5.0277777777777775E-2</v>
+        <v>0.0502777777777778</v>
       </c>
       <c r="C77">
         <v>152</v>
@@ -4967,12 +6985,12 @@
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>1.2268518518518519E-2</v>
+        <v>0.0122685185185185</v>
       </c>
       <c r="B78" s="1">
-        <v>5.0393518518518511E-2</v>
+        <v>0.0503935185185185</v>
       </c>
       <c r="C78">
         <v>148</v>
@@ -5035,12 +7053,12 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>1.238425925925926E-2</v>
+        <v>0.0123842592592593</v>
       </c>
       <c r="B79" s="1">
-        <v>5.0509259259259254E-2</v>
+        <v>0.0505092592592593</v>
       </c>
       <c r="C79">
         <v>140</v>
@@ -5103,12 +7121,12 @@
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>1.2499999999999999E-2</v>
+        <v>0.0125</v>
       </c>
       <c r="B80" s="1">
-        <v>5.0625000000000003E-2</v>
+        <v>0.050625</v>
       </c>
       <c r="C80">
         <v>149</v>
@@ -5156,7 +7174,7 @@
         <v>66</v>
       </c>
       <c r="S80" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -5174,12 +7192,12 @@
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>1.2615740740740742E-2</v>
+        <v>0.0126157407407407</v>
       </c>
       <c r="B81" s="1">
-        <v>5.0740740740740746E-2</v>
+        <v>0.0507407407407407</v>
       </c>
       <c r="C81">
         <v>149</v>
@@ -5191,7 +7209,7 @@
         <v>2.98</v>
       </c>
       <c r="F81">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G81">
         <v>48</v>
@@ -5242,12 +7260,12 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>1.2731481481481481E-2</v>
+        <v>0.0127314814814815</v>
       </c>
       <c r="B82" s="1">
-        <v>5.0856481481481482E-2</v>
+        <v>0.0508564814814815</v>
       </c>
       <c r="C82">
         <v>165</v>
@@ -5256,7 +7274,7 @@
         <v>14</v>
       </c>
       <c r="E82">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="F82">
         <v>1.81</v>
@@ -5310,12 +7328,12 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>1.2847222222222223E-2</v>
+        <v>0.0128472222222222</v>
       </c>
       <c r="B83" s="1">
-        <v>5.0972222222222224E-2</v>
+        <v>0.0509722222222222</v>
       </c>
       <c r="C83">
         <v>150</v>
@@ -5378,12 +7396,12 @@
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>1.2962962962962963E-2</v>
+        <v>0.012962962962963</v>
       </c>
       <c r="B84" s="1">
-        <v>5.1087962962962967E-2</v>
+        <v>0.051087962962963</v>
       </c>
       <c r="C84">
         <v>173</v>
@@ -5446,12 +7464,12 @@
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>1.3078703703703703E-2</v>
+        <v>0.0130787037037037</v>
       </c>
       <c r="B85" s="1">
-        <v>5.1203703703703703E-2</v>
+        <v>0.0512037037037037</v>
       </c>
       <c r="C85">
         <v>176</v>
@@ -5514,12 +7532,12 @@
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>1.3194444444444444E-2</v>
+        <v>0.0131944444444444</v>
       </c>
       <c r="B86" s="1">
-        <v>5.1319444444444445E-2</v>
+        <v>0.0513194444444444</v>
       </c>
       <c r="C86">
         <v>152</v>
@@ -5567,51 +7585,51 @@
         <v>98</v>
       </c>
       <c r="S86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U86" s="2">
         <f>AVERAGE(C80:C86)</f>
-        <v>159.14285714285714</v>
+        <v>159.142857142857</v>
       </c>
       <c r="V86" s="2">
         <f t="shared" ref="V86:AI86" si="1">AVERAGE(D80:D86)</f>
-        <v>16.142857142857142</v>
+        <v>16.1428571428571</v>
       </c>
       <c r="W86" s="2">
         <f t="shared" si="1"/>
-        <v>2.6114285714285717</v>
+        <v>2.61142857142857</v>
       </c>
       <c r="X86" s="2">
         <f t="shared" si="1"/>
-        <v>1.9285714285714286</v>
+        <v>1.92857142857143</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" si="1"/>
-        <v>44.142857142857146</v>
+        <v>44.1428571428571</v>
       </c>
       <c r="Z86" s="2">
         <f t="shared" si="1"/>
-        <v>102.42857142857143</v>
+        <v>102.428571428571</v>
       </c>
       <c r="AA86" s="2">
         <f t="shared" si="1"/>
-        <v>48.571428571428569</v>
+        <v>48.5714285714286</v>
       </c>
       <c r="AB86" s="2">
         <f t="shared" si="1"/>
-        <v>74.428571428571431</v>
+        <v>74.4285714285714</v>
       </c>
       <c r="AC86" s="2">
         <f t="shared" si="1"/>
-        <v>52.142857142857146</v>
+        <v>52.1428571428571</v>
       </c>
       <c r="AD86" s="2">
         <f t="shared" si="1"/>
-        <v>36.428571428571431</v>
+        <v>36.4285714285714</v>
       </c>
       <c r="AE86" s="2">
         <f t="shared" si="1"/>
-        <v>1831.2857142857142</v>
+        <v>1831.28571428571</v>
       </c>
       <c r="AF86" s="2">
         <f t="shared" si="1"/>
@@ -5619,23 +7637,23 @@
       </c>
       <c r="AG86" s="2">
         <f t="shared" si="1"/>
-        <v>1.475714285714286</v>
+        <v>1.47571428571429</v>
       </c>
       <c r="AH86" s="2">
         <f t="shared" si="1"/>
-        <v>148.57142857142858</v>
+        <v>148.571428571429</v>
       </c>
       <c r="AI86" s="2">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>1.3310185185185187E-2</v>
+        <v>0.0133101851851852</v>
       </c>
       <c r="B87" s="1">
-        <v>5.1435185185185188E-2</v>
+        <v>0.0514351851851852</v>
       </c>
       <c r="C87">
         <v>164</v>
@@ -5644,7 +7662,7 @@
         <v>13</v>
       </c>
       <c r="E87">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="F87">
         <v>1.61</v>
@@ -5674,7 +7692,7 @@
         <v>2765</v>
       </c>
       <c r="O87">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="P87">
         <v>141</v>
@@ -5698,12 +7716,12 @@
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>1.3425925925925924E-2</v>
+        <v>0.0134259259259259</v>
       </c>
       <c r="B88" s="1">
-        <v>5.1550925925925924E-2</v>
+        <v>0.0515509259259259</v>
       </c>
       <c r="C88">
         <v>155</v>
@@ -5715,7 +7733,7 @@
         <v>1.49</v>
       </c>
       <c r="F88">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G88">
         <v>35</v>
@@ -5766,12 +7784,12 @@
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35">
       <c r="A89" s="1">
-        <v>1.3541666666666667E-2</v>
+        <v>0.0135416666666667</v>
       </c>
       <c r="B89" s="1">
-        <v>5.1666666666666666E-2</v>
+        <v>0.0516666666666667</v>
       </c>
       <c r="C89">
         <v>185</v>
@@ -5819,7 +7837,7 @@
         <v>173</v>
       </c>
       <c r="S89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U89" s="2">
         <f>AVERAGE(C86:C89)</f>
@@ -5831,7 +7849,7 @@
       </c>
       <c r="W89" s="2">
         <f t="shared" si="2"/>
-        <v>2.1550000000000002</v>
+        <v>2.155</v>
       </c>
       <c r="X89" s="2">
         <f t="shared" si="2"/>
@@ -5871,7 +7889,7 @@
       </c>
       <c r="AG89" s="2">
         <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AH89" s="2">
         <f t="shared" si="2"/>
@@ -5882,12 +7900,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35">
       <c r="A90" s="1">
-        <v>1.3657407407407408E-2</v>
+        <v>0.0136574074074074</v>
       </c>
       <c r="B90" s="1">
-        <v>5.1782407407407409E-2</v>
+        <v>0.0517824074074074</v>
       </c>
       <c r="C90">
         <v>132</v>
@@ -5926,7 +7944,7 @@
         <v>3607</v>
       </c>
       <c r="O90">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="P90">
         <v>150</v>
@@ -5950,12 +7968,12 @@
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35">
       <c r="A91" s="1">
-        <v>1.3773148148148147E-2</v>
+        <v>0.0137731481481481</v>
       </c>
       <c r="B91" s="1">
-        <v>5.1898148148148145E-2</v>
+        <v>0.0518981481481481</v>
       </c>
       <c r="C91">
         <v>156</v>
@@ -6003,7 +8021,7 @@
         <v>170</v>
       </c>
       <c r="S91" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
@@ -6021,12 +8039,12 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>1.3888888888888888E-2</v>
+        <v>0.0138888888888889</v>
       </c>
       <c r="B92" s="1">
-        <v>5.2013888888888887E-2</v>
+        <v>0.0520138888888889</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -6083,11 +8101,11 @@
       </c>
       <c r="W92" s="2">
         <f t="shared" si="3"/>
-        <v>2.6850000000000001</v>
+        <v>2.685</v>
       </c>
       <c r="X92" s="2">
         <f t="shared" si="3"/>
-        <v>1.9824999999999999</v>
+        <v>1.9825</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="3"/>
@@ -6123,7 +8141,7 @@
       </c>
       <c r="AG92" s="2">
         <f t="shared" si="3"/>
-        <v>1.6449999999999998</v>
+        <v>1.645</v>
       </c>
       <c r="AH92" s="2">
         <f t="shared" si="3"/>
@@ -6134,12 +8152,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
-        <v>1.4004629629629631E-2</v>
+        <v>0.0140046296296296</v>
       </c>
       <c r="B93" s="1">
-        <v>5.212962962962963E-2</v>
+        <v>0.0521296296296296</v>
       </c>
       <c r="C93">
         <v>148</v>
@@ -6187,12 +8205,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
-        <v>1.4120370370370368E-2</v>
+        <v>0.0141203703703704</v>
       </c>
       <c r="B94" s="1">
-        <v>5.2245370370370366E-2</v>
+        <v>0.0522453703703704</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -6240,12 +8258,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
-        <v>1.4236111111111111E-2</v>
+        <v>0.0142361111111111</v>
       </c>
       <c r="B95" s="1">
-        <v>5.2361111111111108E-2</v>
+        <v>0.0523611111111111</v>
       </c>
       <c r="C95">
         <v>150</v>
@@ -6257,7 +8275,7 @@
         <v>1.52</v>
       </c>
       <c r="F95">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="G95">
         <v>33</v>
@@ -6293,12 +8311,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
-        <v>1.4351851851851852E-2</v>
+        <v>0.0143518518518519</v>
       </c>
       <c r="B96" s="1">
-        <v>5.2476851851851851E-2</v>
+        <v>0.0524768518518519</v>
       </c>
       <c r="C96">
         <v>147</v>
@@ -6337,7 +8355,7 @@
         <v>3218</v>
       </c>
       <c r="O96">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="P96">
         <v>151</v>
@@ -6346,36 +8364,46 @@
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X15 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X15 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\24Sept2013_Xining_Physioflow_X14X16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0F1D14-EF1E-4E42-9D99-24CFA65140FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -177,14 +191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,353 +200,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -546,322 +217,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -873,7 +258,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -899,6 +283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -923,287 +308,284 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$96</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="91"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.00833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.0087962962962963</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00914351851851852</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.009375</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00949074074074074</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00960648148148148</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00972222222222222</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.0100694444444444</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.0103009259259259</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.0105324074074074</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.0106481481481481</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.0107638888888889</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.0108796296296296</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.0109953703703704</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.0111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.0114583333333333</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.0115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.0116898148148148</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.0118055555555556</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.0119212962962963</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.012037037037037</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.0121527777777778</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.0122685185185185</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.0123842592592593</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.0125</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.0126157407407407</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.0127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.0128472222222222</c:v>
-                </c:pt>
-                <c:pt idx="78" c:formatCode="h:mm:ss">
-                  <c:v>0.012962962962963</c:v>
-                </c:pt>
-                <c:pt idx="79" c:formatCode="h:mm:ss">
-                  <c:v>0.0130787037037037</c:v>
-                </c:pt>
-                <c:pt idx="80" c:formatCode="h:mm:ss">
-                  <c:v>0.0131944444444444</c:v>
-                </c:pt>
-                <c:pt idx="81" c:formatCode="h:mm:ss">
-                  <c:v>0.0133101851851852</c:v>
-                </c:pt>
-                <c:pt idx="82" c:formatCode="h:mm:ss">
-                  <c:v>0.0134259259259259</c:v>
-                </c:pt>
-                <c:pt idx="83" c:formatCode="h:mm:ss">
-                  <c:v>0.0135416666666667</c:v>
-                </c:pt>
-                <c:pt idx="84" c:formatCode="h:mm:ss">
-                  <c:v>0.0136574074074074</c:v>
-                </c:pt>
-                <c:pt idx="85" c:formatCode="h:mm:ss">
-                  <c:v>0.0137731481481481</c:v>
-                </c:pt>
-                <c:pt idx="86" c:formatCode="h:mm:ss">
-                  <c:v>0.0138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="87" c:formatCode="h:mm:ss">
-                  <c:v>0.0140046296296296</c:v>
-                </c:pt>
-                <c:pt idx="88" c:formatCode="h:mm:ss">
-                  <c:v>0.0141203703703704</c:v>
-                </c:pt>
-                <c:pt idx="89" c:formatCode="h:mm:ss">
-                  <c:v>0.0142361111111111</c:v>
-                </c:pt>
-                <c:pt idx="90" c:formatCode="h:mm:ss">
-                  <c:v>0.0143518518518519</c:v>
+                <c:pt idx="0">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.9861111111111105E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.2175925925925906E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.7962962962963003E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.1435185185185196E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.3749999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.4907407407407406E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.6064814814814797E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.00694444444444E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0300925925925899E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.05324074074074E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0648148148148099E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0763888888888899E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.09953703703704E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.14583333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1574074074074099E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.16898148148148E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.18055555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.19212962962963E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2037037037037001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2152777777777801E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.22685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.23842592592593E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.26157407407407E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.27314814814815E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2847222222222201E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2962962962963001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.30787037037037E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3194444444444399E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3310185185185199E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.34259259259259E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.35416666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3657407407407399E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.37731481481481E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.38888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.40046296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4120370370370399E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.42361111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.43518518518519E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1221,7 +603,7 @@
                   <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.19</c:v>
+                  <c:v>4.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.95</c:v>
@@ -1248,7 +630,7 @@
                   <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.02</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.3</c:v>
@@ -1275,7 +657,7 @@
                   <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.77</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.71</c:v>
@@ -1290,13 +672,13 @@
                   <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.69</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4.68</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.49</c:v>
+                  <c:v>2.4900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.49</c:v>
@@ -1335,7 +717,7 @@
                   <c:v>4.72</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.6</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.79</c:v>
@@ -1347,7 +729,7 @@
                   <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.98</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4.99</c:v>
@@ -1392,7 +774,7 @@
                   <c:v>5.36</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.98</c:v>
+                  <c:v>4.9800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>5.08</c:v>
@@ -1407,7 +789,7 @@
                   <c:v>4.49</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>4.75</c:v>
@@ -1443,7 +825,7 @@
                   <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.45</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2.4</c:v>
@@ -1458,7 +840,7 @@
                   <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.18</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.49</c:v>
@@ -1491,6 +873,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84D9-42D0-9C33-B31DC783EDBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1500,7 +887,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="480791308"/>
         <c:axId val="951364578"/>
@@ -1512,6 +898,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1545,6 +932,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="951364578"/>
@@ -1603,6 +991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="480791308"/>
@@ -1643,6 +1032,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2210,7 +1600,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
@@ -2224,14 +1614,20 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>178435</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10687050" y="17186275"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2525,21 +1921,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2665,12 +2061,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0383564814814815</v>
+        <v>3.8356481481481498E-2</v>
       </c>
       <c r="C6">
         <v>110</v>
@@ -2718,12 +2114,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0387037037037037</v>
+        <v>3.8703703703703699E-2</v>
       </c>
       <c r="C7">
         <v>110</v>
@@ -2771,12 +2167,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0388194444444444</v>
+        <v>3.88194444444444E-2</v>
       </c>
       <c r="C8">
         <v>111</v>
@@ -2785,7 +2181,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="F8">
         <v>3.1</v>
@@ -2824,12 +2220,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0389351851851852</v>
+        <v>3.8935185185185198E-2</v>
       </c>
       <c r="C9">
         <v>108</v>
@@ -2877,12 +2273,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0391666666666667</v>
+        <v>3.9166666666666697E-2</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2933,12 +2329,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0392824074074074</v>
+        <v>3.9282407407407398E-2</v>
       </c>
       <c r="C11">
         <v>107</v>
@@ -2986,12 +2382,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0393981481481481</v>
+        <v>3.9398148148148099E-2</v>
       </c>
       <c r="C12">
         <v>108</v>
@@ -3039,12 +2435,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0395138888888889</v>
+        <v>3.9513888888888897E-2</v>
       </c>
       <c r="C13">
         <v>113</v>
@@ -3092,12 +2488,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0396296296296296</v>
+        <v>3.9629629629629598E-2</v>
       </c>
       <c r="C14">
         <v>113</v>
@@ -3145,12 +2541,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0397453703703704</v>
+        <v>3.9745370370370403E-2</v>
       </c>
       <c r="C15">
         <v>110</v>
@@ -3198,12 +2594,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0398611111111111</v>
+        <v>3.9861111111111097E-2</v>
       </c>
       <c r="C16">
         <v>111</v>
@@ -3253,10 +2649,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0399768518518519</v>
+        <v>3.9976851851851902E-2</v>
       </c>
       <c r="C17">
         <v>109</v>
@@ -3265,7 +2661,7 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F17">
         <v>2.97</v>
@@ -3306,10 +2702,10 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.0400925925925926</v>
+        <v>4.0092592592592603E-2</v>
       </c>
       <c r="C18">
         <v>123</v>
@@ -3359,10 +2755,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0402083333333333</v>
+        <v>4.0208333333333297E-2</v>
       </c>
       <c r="C19">
         <v>126</v>
@@ -3412,10 +2808,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0403240740740741</v>
+        <v>4.0324074074074102E-2</v>
       </c>
       <c r="C20">
         <v>119</v>
@@ -3465,10 +2861,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.0404398148148148</v>
+        <v>4.0439814814814803E-2</v>
       </c>
       <c r="C21">
         <v>105</v>
@@ -3518,10 +2914,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0406712962962963</v>
+        <v>4.0671296296296303E-2</v>
       </c>
       <c r="C22">
         <v>91</v>
@@ -3560,7 +2956,7 @@
         <v>2127</v>
       </c>
       <c r="O22">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="P22">
         <v>217</v>
@@ -3571,10 +2967,10 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.040787037037037</v>
+        <v>4.0787037037036997E-2</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -3624,10 +3020,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0409027777777778</v>
+        <v>4.0902777777777802E-2</v>
       </c>
       <c r="C24">
         <v>96</v>
@@ -3677,10 +3073,10 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.0410185185185185</v>
+        <v>4.1018518518518503E-2</v>
       </c>
       <c r="C25">
         <v>97</v>
@@ -3730,10 +3126,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.0411342592592593</v>
+        <v>4.1134259259259301E-2</v>
       </c>
       <c r="C26">
         <v>95</v>
@@ -3742,7 +3138,7 @@
         <v>49</v>
       </c>
       <c r="E26">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="F26">
         <v>3.52</v>
@@ -3772,7 +3168,7 @@
         <v>2078</v>
       </c>
       <c r="O26">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="P26">
         <v>210</v>
@@ -3783,10 +3179,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.04125</v>
+        <v>4.1250000000000002E-2</v>
       </c>
       <c r="C27">
         <v>96</v>
@@ -3836,10 +3232,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.0413657407407407</v>
+        <v>4.1365740740740703E-2</v>
       </c>
       <c r="C28">
         <v>91</v>
@@ -3878,7 +3274,7 @@
         <v>2151</v>
       </c>
       <c r="O28">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="P28">
         <v>216</v>
@@ -3889,10 +3285,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.0414814814814815</v>
+        <v>4.1481481481481501E-2</v>
       </c>
       <c r="C29">
         <v>96</v>
@@ -3931,7 +3327,7 @@
         <v>2087</v>
       </c>
       <c r="O29">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="P29">
         <v>210</v>
@@ -3942,10 +3338,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.0415972222222222</v>
+        <v>4.1597222222222202E-2</v>
       </c>
       <c r="C30">
         <v>96</v>
@@ -3995,10 +3391,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.0426388888888889</v>
+        <v>4.26388888888889E-2</v>
       </c>
       <c r="C31">
         <v>96</v>
@@ -4007,7 +3403,7 @@
         <v>48</v>
       </c>
       <c r="E31">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F31">
         <v>3.46</v>
@@ -4037,7 +3433,7 @@
         <v>2104</v>
       </c>
       <c r="O31">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P31">
         <v>207</v>
@@ -4048,10 +3444,10 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.0427546296296296</v>
+        <v>4.2754629629629601E-2</v>
       </c>
       <c r="C32">
         <v>95</v>
@@ -4090,7 +3486,7 @@
         <v>2111</v>
       </c>
       <c r="O32">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="P32">
         <v>210</v>
@@ -4099,12 +3495,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.0429861111111111</v>
+        <v>4.29861111111111E-2</v>
       </c>
       <c r="C33">
         <v>196</v>
@@ -4113,7 +3509,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F33">
         <v>1.83</v>
@@ -4152,12 +3548,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.0431018518518519</v>
+        <v>4.3101851851851898E-2</v>
       </c>
       <c r="C34">
         <v>97</v>
@@ -4205,12 +3601,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.0433333333333333</v>
+        <v>4.33333333333333E-2</v>
       </c>
       <c r="C35">
         <v>89</v>
@@ -4258,12 +3654,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0434490740740741</v>
+        <v>4.3449074074074098E-2</v>
       </c>
       <c r="C36">
         <v>94</v>
@@ -4313,10 +3709,10 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.0435648148148148</v>
+        <v>4.3564814814814799E-2</v>
       </c>
       <c r="C37">
         <v>92</v>
@@ -4369,10 +3765,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.0436805555555556</v>
+        <v>4.3680555555555597E-2</v>
       </c>
       <c r="C38">
         <v>91</v>
@@ -4423,12 +3819,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.0437962962962963</v>
+        <v>4.3796296296296298E-2</v>
       </c>
       <c r="C39">
         <v>92</v>
@@ -4476,12 +3872,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.043912037037037</v>
+        <v>4.3912037037036999E-2</v>
       </c>
       <c r="C40">
         <v>103</v>
@@ -4520,7 +3916,7 @@
         <v>1869</v>
       </c>
       <c r="O40">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="P40">
         <v>233</v>
@@ -4531,10 +3927,10 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.0442592592592593</v>
+        <v>4.4259259259259297E-2</v>
       </c>
       <c r="C41">
         <v>92</v>
@@ -4587,10 +3983,10 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.0449537037037037</v>
+        <v>4.4953703703703697E-2</v>
       </c>
       <c r="C42">
         <v>110</v>
@@ -4602,7 +3998,7 @@
         <v>5.55</v>
       </c>
       <c r="F42">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G42">
         <v>56</v>
@@ -4641,12 +4037,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.0451851851851852</v>
+        <v>4.5185185185185203E-2</v>
       </c>
       <c r="C43">
         <v>86</v>
@@ -4694,12 +4090,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.0453009259259259</v>
+        <v>4.5300925925925897E-2</v>
       </c>
       <c r="C44">
         <v>87</v>
@@ -4747,12 +4143,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.0454166666666667</v>
+        <v>4.5416666666666702E-2</v>
       </c>
       <c r="C45">
         <v>87</v>
@@ -4791,7 +4187,7 @@
         <v>2177</v>
       </c>
       <c r="O45">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P45">
         <v>235</v>
@@ -4800,12 +4196,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.0455324074074074</v>
+        <v>4.5532407407407403E-2</v>
       </c>
       <c r="C46">
         <v>84</v>
@@ -4814,7 +4210,7 @@
         <v>54</v>
       </c>
       <c r="E46">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F46">
         <v>3.4</v>
@@ -4853,12 +4249,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.0456481481481482</v>
+        <v>4.5648148148148202E-2</v>
       </c>
       <c r="C47">
         <v>88</v>
@@ -4906,12 +4302,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.0457638888888889</v>
+        <v>4.5763888888888903E-2</v>
       </c>
       <c r="C48">
         <v>91</v>
@@ -4950,7 +4346,7 @@
         <v>2100</v>
       </c>
       <c r="O48">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P48">
         <v>232</v>
@@ -4961,10 +4357,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.0458796296296296</v>
+        <v>4.5879629629629597E-2</v>
       </c>
       <c r="C49">
         <v>94</v>
@@ -5029,10 +4425,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.0459953703703704</v>
+        <v>4.5995370370370402E-2</v>
       </c>
       <c r="C50">
         <v>97</v>
@@ -5041,7 +4437,7 @@
         <v>51</v>
       </c>
       <c r="E50">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F50">
         <v>3.67</v>
@@ -5071,7 +4467,7 @@
         <v>2012</v>
       </c>
       <c r="O50">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="P50">
         <v>221</v>
@@ -5084,59 +4480,59 @@
       </c>
       <c r="U50" s="2">
         <f>AVERAGE(C42:C50)</f>
-        <v>91.5555555555556</v>
+        <v>91.555555555555557</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" ref="V50:AI50" si="0">AVERAGE(D42:D50)</f>
-        <v>52.7777777777778</v>
+        <v>52.777777777777779</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" si="0"/>
-        <v>4.87555555555555</v>
+        <v>4.8755555555555548</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="0"/>
-        <v>55.4444444444444</v>
+        <v>55.444444444444443</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" si="0"/>
-        <v>429.666666666667</v>
+        <v>429.66666666666669</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" si="0"/>
-        <v>117.777777777778</v>
+        <v>117.77777777777777</v>
       </c>
       <c r="AB50" s="2">
         <f t="shared" si="0"/>
-        <v>108.333333333333</v>
+        <v>108.33333333333333</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" si="0"/>
-        <v>93.1111111111111</v>
+        <v>93.111111111111114</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" si="0"/>
-        <v>94.5555555555556</v>
+        <v>94.555555555555557</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" si="0"/>
-        <v>1544.55555555556</v>
+        <v>1544.5555555555557</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" si="0"/>
-        <v>2091.88888888889</v>
+        <v>2091.8888888888887</v>
       </c>
       <c r="AG50" s="2">
         <f t="shared" si="0"/>
-        <v>4.70777777777778</v>
+        <v>4.7077777777777783</v>
       </c>
       <c r="AH50" s="2">
         <f t="shared" si="0"/>
-        <v>231.333333333333</v>
+        <v>231.33333333333334</v>
       </c>
       <c r="AI50" s="2">
         <f t="shared" si="0"/>
@@ -5145,10 +4541,10 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.0461111111111111</v>
+        <v>4.6111111111111103E-2</v>
       </c>
       <c r="C51">
         <v>94</v>
@@ -5213,10 +4609,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00810185185185185</v>
+        <v>8.1018518518518497E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.0462268518518519</v>
+        <v>4.6226851851851901E-2</v>
       </c>
       <c r="C52">
         <v>91</v>
@@ -5281,10 +4677,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00821759259259259</v>
+        <v>8.2175925925925906E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.0463425925925926</v>
+        <v>4.6342592592592602E-2</v>
       </c>
       <c r="C53">
         <v>97</v>
@@ -5349,10 +4745,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.00833333333333333</v>
+        <v>8.3333333333333297E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.0464583333333333</v>
+        <v>4.6458333333333303E-2</v>
       </c>
       <c r="C54">
         <v>96</v>
@@ -5417,10 +4813,10 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.0087962962962963</v>
+        <v>8.7962962962963003E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.0469212962962963</v>
+        <v>4.6921296296296301E-2</v>
       </c>
       <c r="C55">
         <v>101</v>
@@ -5488,10 +4884,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00914351851851852</v>
+        <v>9.1435185185185196E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.0472685185185185</v>
+        <v>4.7268518518518501E-2</v>
       </c>
       <c r="C56">
         <v>96</v>
@@ -5503,7 +4899,7 @@
         <v>3.32</v>
       </c>
       <c r="F56">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G56">
         <v>54</v>
@@ -5556,10 +4952,10 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00925925925925926</v>
+        <v>9.2592592592592605E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.0473842592592593</v>
+        <v>4.73842592592593E-2</v>
       </c>
       <c r="C57">
         <v>127</v>
@@ -5624,10 +5020,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.009375</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.0475</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="C58">
         <v>121</v>
@@ -5692,10 +5088,10 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00949074074074074</v>
+        <v>9.4907407407407406E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.0476157407407407</v>
+        <v>4.7615740740740702E-2</v>
       </c>
       <c r="C59">
         <v>124</v>
@@ -5760,10 +5156,10 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.00960648148148148</v>
+        <v>9.6064814814814797E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.0477314814814815</v>
+        <v>4.77314814814815E-2</v>
       </c>
       <c r="C60">
         <v>105</v>
@@ -5828,10 +5224,10 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00972222222222222</v>
+        <v>9.7222222222222206E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.0478472222222222</v>
+        <v>4.7847222222222201E-2</v>
       </c>
       <c r="C61">
         <v>123</v>
@@ -5896,10 +5292,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.0100694444444444</v>
+        <v>1.00694444444444E-2</v>
       </c>
       <c r="B62" s="1">
-        <v>0.0481944444444444</v>
+        <v>4.8194444444444401E-2</v>
       </c>
       <c r="C62">
         <v>121</v>
@@ -5964,10 +5360,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.0103009259259259</v>
+        <v>1.0300925925925899E-2</v>
       </c>
       <c r="B63" s="1">
-        <v>0.0484259259259259</v>
+        <v>4.84259259259259E-2</v>
       </c>
       <c r="C63">
         <v>119</v>
@@ -6032,10 +5428,10 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.0104166666666667</v>
+        <v>1.0416666666666701E-2</v>
       </c>
       <c r="B64" s="1">
-        <v>0.0485416666666667</v>
+        <v>4.8541666666666698E-2</v>
       </c>
       <c r="C64">
         <v>119</v>
@@ -6100,10 +5496,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.0105324074074074</v>
+        <v>1.05324074074074E-2</v>
       </c>
       <c r="B65" s="1">
-        <v>0.0486574074074074</v>
+        <v>4.8657407407407399E-2</v>
       </c>
       <c r="C65">
         <v>95</v>
@@ -6112,7 +5508,7 @@
         <v>52</v>
       </c>
       <c r="E65">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F65">
         <v>3.68</v>
@@ -6168,10 +5564,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.0106481481481481</v>
+        <v>1.0648148148148099E-2</v>
       </c>
       <c r="B66" s="1">
-        <v>0.0487731481481481</v>
+        <v>4.87731481481481E-2</v>
       </c>
       <c r="C66">
         <v>126</v>
@@ -6236,10 +5632,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.0107638888888889</v>
+        <v>1.0763888888888899E-2</v>
       </c>
       <c r="B67" s="1">
-        <v>0.0488888888888889</v>
+        <v>4.8888888888888898E-2</v>
       </c>
       <c r="C67">
         <v>126</v>
@@ -6304,10 +5700,10 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.0108796296296296</v>
+        <v>1.08796296296296E-2</v>
       </c>
       <c r="B68" s="1">
-        <v>0.0490046296296296</v>
+        <v>4.9004629629629599E-2</v>
       </c>
       <c r="C68">
         <v>129</v>
@@ -6372,10 +5768,10 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.0109953703703704</v>
+        <v>1.09953703703704E-2</v>
       </c>
       <c r="B69" s="1">
-        <v>0.0491203703703704</v>
+        <v>4.9120370370370398E-2</v>
       </c>
       <c r="C69">
         <v>109</v>
@@ -6440,10 +5836,10 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.0111111111111111</v>
+        <v>1.1111111111111099E-2</v>
       </c>
       <c r="B70" s="1">
-        <v>0.0492361111111111</v>
+        <v>4.9236111111111099E-2</v>
       </c>
       <c r="C70">
         <v>130</v>
@@ -6452,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="E70">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F70">
         <v>3.74</v>
@@ -6508,10 +5904,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.0114583333333333</v>
+        <v>1.14583333333333E-2</v>
       </c>
       <c r="B71" s="1">
-        <v>0.0495833333333333</v>
+        <v>4.9583333333333299E-2</v>
       </c>
       <c r="C71">
         <v>131</v>
@@ -6576,10 +5972,10 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.0115740740740741</v>
+        <v>1.1574074074074099E-2</v>
       </c>
       <c r="B72" s="1">
-        <v>0.0496990740740741</v>
+        <v>4.9699074074074097E-2</v>
       </c>
       <c r="C72">
         <v>134</v>
@@ -6647,10 +6043,10 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.0116898148148148</v>
+        <v>1.16898148148148E-2</v>
       </c>
       <c r="B73" s="1">
-        <v>0.0498148148148148</v>
+        <v>4.9814814814814798E-2</v>
       </c>
       <c r="C73">
         <v>136</v>
@@ -6715,10 +6111,10 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.0118055555555556</v>
+        <v>1.18055555555556E-2</v>
       </c>
       <c r="B74" s="1">
-        <v>0.0499305555555556</v>
+        <v>4.9930555555555603E-2</v>
       </c>
       <c r="C74">
         <v>108</v>
@@ -6783,10 +6179,10 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.0119212962962963</v>
+        <v>1.19212962962963E-2</v>
       </c>
       <c r="B75" s="1">
-        <v>0.0500462962962963</v>
+        <v>5.0046296296296297E-2</v>
       </c>
       <c r="C75">
         <v>101</v>
@@ -6851,10 +6247,10 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.012037037037037</v>
+        <v>1.2037037037037001E-2</v>
       </c>
       <c r="B76" s="1">
-        <v>0.050162037037037</v>
+        <v>5.0162037037036998E-2</v>
       </c>
       <c r="C76">
         <v>138</v>
@@ -6919,10 +6315,10 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.0121527777777778</v>
+        <v>1.2152777777777801E-2</v>
       </c>
       <c r="B77" s="1">
-        <v>0.0502777777777778</v>
+        <v>5.0277777777777803E-2</v>
       </c>
       <c r="C77">
         <v>152</v>
@@ -6987,10 +6383,10 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.0122685185185185</v>
+        <v>1.22685185185185E-2</v>
       </c>
       <c r="B78" s="1">
-        <v>0.0503935185185185</v>
+        <v>5.0393518518518497E-2</v>
       </c>
       <c r="C78">
         <v>148</v>
@@ -7055,10 +6451,10 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.0123842592592593</v>
+        <v>1.23842592592593E-2</v>
       </c>
       <c r="B79" s="1">
-        <v>0.0505092592592593</v>
+        <v>5.0509259259259302E-2</v>
       </c>
       <c r="C79">
         <v>140</v>
@@ -7123,10 +6519,10 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="B80" s="1">
-        <v>0.050625</v>
+        <v>5.0625000000000003E-2</v>
       </c>
       <c r="C80">
         <v>149</v>
@@ -7194,10 +6590,10 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="1">
-        <v>0.0126157407407407</v>
+        <v>1.26157407407407E-2</v>
       </c>
       <c r="B81" s="1">
-        <v>0.0507407407407407</v>
+        <v>5.0740740740740697E-2</v>
       </c>
       <c r="C81">
         <v>149</v>
@@ -7209,7 +6605,7 @@
         <v>2.98</v>
       </c>
       <c r="F81">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G81">
         <v>48</v>
@@ -7262,10 +6658,10 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="1">
-        <v>0.0127314814814815</v>
+        <v>1.27314814814815E-2</v>
       </c>
       <c r="B82" s="1">
-        <v>0.0508564814814815</v>
+        <v>5.0856481481481502E-2</v>
       </c>
       <c r="C82">
         <v>165</v>
@@ -7274,7 +6670,7 @@
         <v>14</v>
       </c>
       <c r="E82">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F82">
         <v>1.81</v>
@@ -7330,10 +6726,10 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="1">
-        <v>0.0128472222222222</v>
+        <v>1.2847222222222201E-2</v>
       </c>
       <c r="B83" s="1">
-        <v>0.0509722222222222</v>
+        <v>5.0972222222222197E-2</v>
       </c>
       <c r="C83">
         <v>150</v>
@@ -7398,10 +6794,10 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="1">
-        <v>0.012962962962963</v>
+        <v>1.2962962962963001E-2</v>
       </c>
       <c r="B84" s="1">
-        <v>0.051087962962963</v>
+        <v>5.1087962962963002E-2</v>
       </c>
       <c r="C84">
         <v>173</v>
@@ -7466,10 +6862,10 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="1">
-        <v>0.0130787037037037</v>
+        <v>1.30787037037037E-2</v>
       </c>
       <c r="B85" s="1">
-        <v>0.0512037037037037</v>
+        <v>5.1203703703703703E-2</v>
       </c>
       <c r="C85">
         <v>176</v>
@@ -7534,10 +6930,10 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="1">
-        <v>0.0131944444444444</v>
+        <v>1.3194444444444399E-2</v>
       </c>
       <c r="B86" s="1">
-        <v>0.0513194444444444</v>
+        <v>5.1319444444444397E-2</v>
       </c>
       <c r="C86">
         <v>152</v>
@@ -7589,47 +6985,47 @@
       </c>
       <c r="U86" s="2">
         <f>AVERAGE(C80:C86)</f>
-        <v>159.142857142857</v>
+        <v>159.14285714285714</v>
       </c>
       <c r="V86" s="2">
         <f t="shared" ref="V86:AI86" si="1">AVERAGE(D80:D86)</f>
-        <v>16.1428571428571</v>
+        <v>16.142857142857142</v>
       </c>
       <c r="W86" s="2">
         <f t="shared" si="1"/>
-        <v>2.61142857142857</v>
+        <v>2.6114285714285717</v>
       </c>
       <c r="X86" s="2">
         <f t="shared" si="1"/>
-        <v>1.92857142857143</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" si="1"/>
-        <v>44.1428571428571</v>
+        <v>44.142857142857146</v>
       </c>
       <c r="Z86" s="2">
         <f t="shared" si="1"/>
-        <v>102.428571428571</v>
+        <v>102.42857142857143</v>
       </c>
       <c r="AA86" s="2">
         <f t="shared" si="1"/>
-        <v>48.5714285714286</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="AB86" s="2">
         <f t="shared" si="1"/>
-        <v>74.4285714285714</v>
+        <v>74.428571428571431</v>
       </c>
       <c r="AC86" s="2">
         <f t="shared" si="1"/>
-        <v>52.1428571428571</v>
+        <v>52.142857142857146</v>
       </c>
       <c r="AD86" s="2">
         <f t="shared" si="1"/>
-        <v>36.4285714285714</v>
+        <v>36.428571428571431</v>
       </c>
       <c r="AE86" s="2">
         <f t="shared" si="1"/>
-        <v>1831.28571428571</v>
+        <v>1831.2857142857142</v>
       </c>
       <c r="AF86" s="2">
         <f t="shared" si="1"/>
@@ -7637,11 +7033,11 @@
       </c>
       <c r="AG86" s="2">
         <f t="shared" si="1"/>
-        <v>1.47571428571429</v>
+        <v>1.475714285714286</v>
       </c>
       <c r="AH86" s="2">
         <f t="shared" si="1"/>
-        <v>148.571428571429</v>
+        <v>148.57142857142858</v>
       </c>
       <c r="AI86" s="2">
         <f t="shared" si="1"/>
@@ -7650,10 +7046,10 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="1">
-        <v>0.0133101851851852</v>
+        <v>1.3310185185185199E-2</v>
       </c>
       <c r="B87" s="1">
-        <v>0.0514351851851852</v>
+        <v>5.1435185185185202E-2</v>
       </c>
       <c r="C87">
         <v>164</v>
@@ -7662,7 +7058,7 @@
         <v>13</v>
       </c>
       <c r="E87">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F87">
         <v>1.61</v>
@@ -7692,7 +7088,7 @@
         <v>2765</v>
       </c>
       <c r="O87">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="P87">
         <v>141</v>
@@ -7718,10 +7114,10 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="1">
-        <v>0.0134259259259259</v>
+        <v>1.34259259259259E-2</v>
       </c>
       <c r="B88" s="1">
-        <v>0.0515509259259259</v>
+        <v>5.1550925925925903E-2</v>
       </c>
       <c r="C88">
         <v>155</v>
@@ -7733,7 +7129,7 @@
         <v>1.49</v>
       </c>
       <c r="F88">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G88">
         <v>35</v>
@@ -7786,10 +7182,10 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="1">
-        <v>0.0135416666666667</v>
+        <v>1.35416666666667E-2</v>
       </c>
       <c r="B89" s="1">
-        <v>0.0516666666666667</v>
+        <v>5.1666666666666701E-2</v>
       </c>
       <c r="C89">
         <v>185</v>
@@ -7849,7 +7245,7 @@
       </c>
       <c r="W89" s="2">
         <f t="shared" si="2"/>
-        <v>2.155</v>
+        <v>2.1550000000000002</v>
       </c>
       <c r="X89" s="2">
         <f t="shared" si="2"/>
@@ -7889,7 +7285,7 @@
       </c>
       <c r="AG89" s="2">
         <f t="shared" si="2"/>
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AH89" s="2">
         <f t="shared" si="2"/>
@@ -7902,10 +7298,10 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="1">
-        <v>0.0136574074074074</v>
+        <v>1.3657407407407399E-2</v>
       </c>
       <c r="B90" s="1">
-        <v>0.0517824074074074</v>
+        <v>5.1782407407407402E-2</v>
       </c>
       <c r="C90">
         <v>132</v>
@@ -7944,7 +7340,7 @@
         <v>3607</v>
       </c>
       <c r="O90">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="P90">
         <v>150</v>
@@ -7970,10 +7366,10 @@
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="1">
-        <v>0.0137731481481481</v>
+        <v>1.37731481481481E-2</v>
       </c>
       <c r="B91" s="1">
-        <v>0.0518981481481481</v>
+        <v>5.1898148148148103E-2</v>
       </c>
       <c r="C91">
         <v>156</v>
@@ -8041,10 +7437,10 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="1">
-        <v>0.0138888888888889</v>
+        <v>1.38888888888889E-2</v>
       </c>
       <c r="B92" s="1">
-        <v>0.0520138888888889</v>
+        <v>5.2013888888888901E-2</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -8100,12 +7496,12 @@
         <v>16.25</v>
       </c>
       <c r="W92" s="2">
-        <f t="shared" si="3"/>
-        <v>2.685</v>
+        <f>AVERAGE(E89:E92)</f>
+        <v>2.6850000000000001</v>
       </c>
       <c r="X92" s="2">
         <f t="shared" si="3"/>
-        <v>1.9825</v>
+        <v>1.9824999999999999</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="3"/>
@@ -8141,7 +7537,7 @@
       </c>
       <c r="AG92" s="2">
         <f t="shared" si="3"/>
-        <v>1.645</v>
+        <v>1.6449999999999998</v>
       </c>
       <c r="AH92" s="2">
         <f t="shared" si="3"/>
@@ -8152,12 +7548,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:35">
       <c r="A93" s="1">
-        <v>0.0140046296296296</v>
+        <v>1.40046296296296E-2</v>
       </c>
       <c r="B93" s="1">
-        <v>0.0521296296296296</v>
+        <v>5.2129629629629602E-2</v>
       </c>
       <c r="C93">
         <v>148</v>
@@ -8205,12 +7601,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:35">
       <c r="A94" s="1">
-        <v>0.0141203703703704</v>
+        <v>1.4120370370370399E-2</v>
       </c>
       <c r="B94" s="1">
-        <v>0.0522453703703704</v>
+        <v>5.22453703703704E-2</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -8258,12 +7654,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:35">
       <c r="A95" s="1">
-        <v>0.0142361111111111</v>
+        <v>1.42361111111111E-2</v>
       </c>
       <c r="B95" s="1">
-        <v>0.0523611111111111</v>
+        <v>5.2361111111111101E-2</v>
       </c>
       <c r="C95">
         <v>150</v>
@@ -8275,7 +7671,7 @@
         <v>1.52</v>
       </c>
       <c r="F95">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G95">
         <v>33</v>
@@ -8311,12 +7707,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:35">
       <c r="A96" s="1">
-        <v>0.0143518518518519</v>
+        <v>1.43518518518519E-2</v>
       </c>
       <c r="B96" s="1">
-        <v>0.0524768518518519</v>
+        <v>5.2476851851851899E-2</v>
       </c>
       <c r="C96">
         <v>147</v>
@@ -8355,7 +7751,7 @@
         <v>3218</v>
       </c>
       <c r="O96">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P96">
         <v>151</v>
@@ -8371,39 +7767,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>